--- a/Nearest neighbor vs Centroid.xlsx
+++ b/Nearest neighbor vs Centroid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuonline-my.sharepoint.com/personal/albla038_student_liu_se/Documents/Documents/TNA005/TNA005-MP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{56CC3697-D3D4-4896-9204-0591E7CF7832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF2AB07-D897-4967-B0EE-37C372056EE1}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{56CC3697-D3D4-4896-9204-0591E7CF7832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9308661E-D0D3-4D55-8447-28B18D6B006F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{341A683D-23C9-44BA-A2BE-AE9AD8C6A725}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="4022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="4024">
   <si>
     <t>2.23548305741735</t>
   </si>
@@ -12105,6 +12105,12 @@
   </si>
   <si>
     <t>78.5310734463277</t>
+  </si>
+  <si>
+    <t>Nearest neighbor</t>
+  </si>
+  <si>
+    <t>Centroid</t>
   </si>
 </sst>
 </file>
@@ -12112,9 +12118,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12134,6 +12140,14 @@
       <b/>
       <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -12160,12 +12174,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12181,6 +12199,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34575,335 +34597,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B708E38B-BA46-4ED5-8771-D143A7957958}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="5.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>4022</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>4023</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>359</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>355</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>98.885793871866298</v>
       </c>
-      <c r="D1">
-        <f>A1*C1</f>
+      <c r="D2">
+        <f>A2*C2</f>
         <v>35500</v>
       </c>
-      <c r="H1">
+      <c r="H2">
         <v>359</v>
       </c>
-      <c r="I1">
+      <c r="I2">
         <v>297</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J2">
+        <f>H2-I2</f>
+        <v>62</v>
+      </c>
+      <c r="K2" s="1">
         <v>82.729805013927603</v>
       </c>
-      <c r="K1">
-        <f>H1*J1</f>
+      <c r="L2">
+        <f>H2*K2</f>
         <v>29700.000000000011</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>264</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>255</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>96.590909090909093</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D10" si="0">A2*C2</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">A3*C3</f>
         <v>25500</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>264</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>259</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="1">H3-I3</f>
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
         <v>98.106060606060595</v>
       </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K10" si="1">H2*J2</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L11" si="2">H3*K3</f>
         <v>25899.999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>198</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>183</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>92.424242424242394</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>18299.999999999993</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>198</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>145</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="K4" s="1">
         <v>73.232323232323196</v>
       </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
+      <c r="L4">
+        <f t="shared" si="2"/>
         <v>14499.999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>166</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>154</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>92.771084337349393</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>15400</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>166</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>130</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K5" s="1">
         <v>78.313253012048193</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
+      <c r="L5">
+        <f t="shared" si="2"/>
         <v>13000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>182</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>91</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>18200</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>200</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>148</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="K6" s="1">
         <v>74</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
+      <c r="L6">
+        <f t="shared" si="2"/>
         <v>14800</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>160</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>145</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>90.625</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>160</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>120</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K7" s="1">
         <v>75</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
+      <c r="L7">
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>170</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>164</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>96.470588235294102</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>16399.999999999996</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>170</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>144</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K8" s="1">
         <v>84.705882352941202</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
+      <c r="L8">
+        <f t="shared" si="2"/>
         <v>14400.000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>147</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>139</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>94.557823129251702</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>13900</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>147</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>124</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K9" s="1">
         <v>84.353741496598602</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
+      <c r="L9">
+        <f t="shared" si="2"/>
         <v>12399.999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>166</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>148</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>89.156626506024097</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>14800</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>166</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>126</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K10" s="1">
         <v>75.903614457831296</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
         <v>12599.999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>177</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>169</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>95.480225988700596</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>16900.000000000007</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>177</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>139</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K11" s="1">
         <v>78.531073446327696</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
+      <c r="L11">
+        <f t="shared" si="2"/>
         <v>13900.000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <f>SUM(A1:A10)</f>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <f>SUM(A2:A11)</f>
         <v>2007</v>
       </c>
-      <c r="C11" s="2">
-        <f>AVERAGE(C1:C10)</f>
+      <c r="B12" s="2">
+        <f>SUM(B2:B11)</f>
+        <v>1894</v>
+      </c>
+      <c r="C12" s="2">
+        <f>AVERAGE(C2:C11)</f>
         <v>93.79622935836376</v>
       </c>
-      <c r="D11" s="2">
-        <f>SUM(D1:D10)</f>
+      <c r="D12" s="2">
+        <f>SUM(D2:D11)</f>
         <v>189400</v>
       </c>
-      <c r="F11" s="4">
-        <f>D11/A11</f>
+      <c r="F12" s="4">
+        <f>D12/A12</f>
         <v>94.369706028898861</v>
       </c>
-      <c r="H11" s="2">
-        <f>SUM(H1:H10)</f>
+      <c r="H12" s="2">
+        <f>SUM(H2:H11)</f>
         <v>2007</v>
       </c>
-      <c r="J11" s="3">
-        <f>AVERAGE(J1:J10)</f>
+      <c r="I12" s="2">
+        <f>SUM(I2:I11)</f>
+        <v>1632</v>
+      </c>
+      <c r="J12" s="2">
+        <f>SUM(J2:J11)</f>
+        <v>375</v>
+      </c>
+      <c r="K12" s="3">
+        <f>AVERAGE(K2:K11)</f>
         <v>80.487575361805824</v>
       </c>
-      <c r="K11" s="2">
-        <f>SUM(K1:K10)</f>
+      <c r="L12" s="2">
+        <f>SUM(L2:L11)</f>
         <v>163200</v>
       </c>
-      <c r="M11" s="4">
-        <f>K11/H11</f>
+      <c r="N12" s="4">
+        <f>L12/H12</f>
         <v>81.31539611360239</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
